--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3360" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -678,6 +678,9 @@
       <c r="E3" s="3">
         <v>100</v>
       </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
@@ -698,6 +701,9 @@
       <c r="E4" s="3">
         <v>100</v>
       </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
       <c r="J4" s="3">
         <v>10000</v>
       </c>
@@ -709,6 +715,9 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
@@ -729,6 +738,9 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
@@ -772,6 +784,9 @@
       <c r="E8" s="3">
         <v>100</v>
       </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="J8" s="3">
         <v>2</v>
       </c>
@@ -792,6 +807,9 @@
       <c r="E9" s="3">
         <v>100</v>
       </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
       <c r="J9" s="3">
         <v>20000</v>
       </c>
@@ -803,6 +821,9 @@
       <c r="B10" s="3">
         <v>5</v>
       </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
@@ -822,6 +843,9 @@
       </c>
       <c r="B11" s="3">
         <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -991,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="25580" windowHeight="15420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>任务编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,74 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kill 3 groups of monster.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Occupy 1 gold mine.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hatch 1 dinosaur.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell 10000 woods in market.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售10000木材。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究一项科技。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占领一个金矿。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孵化一只恐龙。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死3组野怪。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究两项科技。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售20000木材。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孵化2只恐龙。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占领2个金矿。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死1组野怪。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell 10001 woods in market.</t>
-  </si>
-  <si>
-    <t>Hatch 2 dinosaur.</t>
-  </si>
-  <si>
-    <t>Occupy 2 gold mine.</t>
-  </si>
-  <si>
-    <t>Kill 4 groups of monster.</t>
-  </si>
-  <si>
     <t>等级限制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,11 +75,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Research twice.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researching once.</t>
+    <t>xp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功掠夺5次玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功占领5次金矿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死10组野怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢得5场比赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得100荣誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 1000 honor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 5 match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steal 5 players</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500+2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300+1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300+1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300+1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 10 groups of monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully occupy 5 gold mine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +222,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,17 +236,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -273,6 +271,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -598,71 +601,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="3" customWidth="1"/>
-    <col min="3" max="6" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="8"/>
-    <col min="10" max="10" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="21">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -675,17 +689,26 @@
       <c r="D3" s="3">
         <v>500</v>
       </c>
-      <c r="E3" s="3">
-        <v>100</v>
-      </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -695,195 +718,129 @@
       <c r="C4" s="3">
         <v>500</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>500</v>
       </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
       <c r="J4" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
+      <c r="D5" s="3">
+        <v>500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>500</v>
+      </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>500</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>500</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>500</v>
-      </c>
-      <c r="D8" s="3">
-        <v>500</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>500</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>50</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="J12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="10">
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,105 +855,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1016,16 +938,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:2" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1046,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1054,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1062,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1070,48 +993,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="25580" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25580" windowHeight="15420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>任务编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,43 +103,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Win 5 match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steal 5 players</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 10 groups of monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully occupy 5 gold mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死5组野怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功占领1次金矿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功掠夺1次玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢得1场比赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>获得100荣誉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Win 1000 honor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win 5 match</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steal 5 players</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500+2%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300+1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300+1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300+1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kill 10 groups of monster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Successfully occupy 5 gold mine</t>
+    <t>Steal 1 players</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 5 groups of monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully occupy 1 gold mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 1 match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 100 honor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得200荣誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 200 honor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -147,6 +171,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -208,7 +235,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,8 +248,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,10 +272,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -254,19 +287,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="18">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,7 +646,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -613,7 +655,7 @@
     <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="5"/>
@@ -622,7 +664,7 @@
     <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -641,7 +683,7 @@
       <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -656,14 +698,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="21">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="10"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -692,8 +734,8 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
+      <c r="G3" s="7">
+        <v>150</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -705,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -716,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E4" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>26</v>
+      <c r="G4" s="7">
+        <v>100</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -737,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -748,28 +790,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E5" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
       </c>
       <c r="L5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -777,19 +819,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>24</v>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
       <c r="L6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -797,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>500</v>
@@ -805,8 +847,8 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
+      <c r="G7" s="7">
+        <v>500</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
@@ -815,19 +857,142 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="J8" s="3"/>
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="J9" s="3"/>
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="J10" s="3"/>
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="J11" s="3"/>
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>500</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>500</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>500</v>
+      </c>
       <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -855,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -870,7 +1035,7 @@
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="22.5">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="21">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -886,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -894,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -902,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -910,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -918,7 +1083,47 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1143,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -948,7 +1153,7 @@
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -961,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -969,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -977,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -985,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -993,23 +1198,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-    </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25580" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="19320" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="cn" sheetId="2" r:id="rId2"/>
     <sheet name="en" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -293,6 +293,7 @@
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -301,15 +302,14 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -643,28 +643,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="5"/>
-    <col min="11" max="11" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="10.875" style="5"/>
+    <col min="11" max="11" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="21">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -828,13 +828,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
@@ -856,7 +856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>300</v>
+        <v>615</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -882,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>300</v>
+        <v>615</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -914,13 +914,13 @@
         <v>2</v>
       </c>
       <c r="K9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>300</v>
+        <v>615</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
@@ -946,13 +946,13 @@
         <v>3</v>
       </c>
       <c r="K10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -966,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>500</v>
+        <v>615</v>
       </c>
       <c r="L11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -986,11 +986,1253 @@
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>500</v>
+        <v>615</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
       <c r="L12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>500</v>
+      </c>
+      <c r="D13" s="3">
+        <v>500</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>500</v>
+      </c>
+      <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>500</v>
+      </c>
+      <c r="E19" s="3">
+        <v>500</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>500</v>
+      </c>
+      <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>500</v>
+      </c>
+      <c r="E25" s="3">
+        <v>500</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2500</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5">
+        <v>5</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <v>500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>500</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>6</v>
+      </c>
+      <c r="L28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>6</v>
+      </c>
+      <c r="L29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>500</v>
+      </c>
+      <c r="E30" s="3">
+        <v>500</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3</v>
+      </c>
+      <c r="K30" s="5">
+        <v>6</v>
+      </c>
+      <c r="L30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>500</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>5000</v>
+      </c>
+      <c r="L31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>25</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3">
+        <v>500</v>
+      </c>
+      <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>8500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>7</v>
+      </c>
+      <c r="L33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3">
+        <v>500</v>
+      </c>
+      <c r="E34" s="3">
+        <v>500</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>8500</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5">
+        <v>7</v>
+      </c>
+      <c r="L34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>8500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="6">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <v>7</v>
+      </c>
+      <c r="L35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3">
+        <v>500</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>8500</v>
+      </c>
+      <c r="L36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
+        <v>8500</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>500</v>
+      </c>
+      <c r="D38" s="3">
+        <v>500</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>8</v>
+      </c>
+      <c r="L38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3">
+        <v>500</v>
+      </c>
+      <c r="E39" s="3">
+        <v>500</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>8</v>
+      </c>
+      <c r="L39" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>500</v>
+      </c>
+      <c r="E40" s="3">
+        <v>500</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2</v>
+      </c>
+      <c r="J40" s="6">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>8</v>
+      </c>
+      <c r="L40" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>35</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>12000</v>
+      </c>
+      <c r="L41" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>12000</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3">
+        <v>500</v>
+      </c>
+      <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>9</v>
+      </c>
+      <c r="L43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>40</v>
+      </c>
+      <c r="C44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="5">
+        <v>9</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
+      <c r="J45" s="6">
+        <v>3</v>
+      </c>
+      <c r="K45" s="5">
+        <v>9</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>40</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>40</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>20000</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3">
+        <v>500</v>
+      </c>
+      <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45</v>
+      </c>
+      <c r="C49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2</v>
+      </c>
+      <c r="K49" s="5">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>500</v>
+      </c>
+      <c r="E50" s="3">
+        <v>500</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="6">
+        <v>3</v>
+      </c>
+      <c r="K50" s="5">
+        <v>10</v>
+      </c>
+      <c r="L50" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45</v>
+      </c>
+      <c r="E51" s="3">
+        <v>500</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>25000</v>
+      </c>
+      <c r="L51" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3">
+        <v>500</v>
+      </c>
+      <c r="D53" s="3">
+        <v>500</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>11</v>
+      </c>
+      <c r="L53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>50</v>
+      </c>
+      <c r="C54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2</v>
+      </c>
+      <c r="K54" s="5">
+        <v>11</v>
+      </c>
+      <c r="L54" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>500</v>
+      </c>
+      <c r="E55" s="3">
+        <v>500</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2</v>
+      </c>
+      <c r="J55" s="6">
+        <v>3</v>
+      </c>
+      <c r="K55" s="5">
+        <v>11</v>
+      </c>
+      <c r="L55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3">
+        <v>500</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>30000</v>
+      </c>
+      <c r="L56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>30000</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
     </row>
@@ -1023,19 +2265,19 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +2288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1054,7 +2296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1062,7 +2304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1070,7 +2312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1078,7 +2320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1086,7 +2328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1094,7 +2336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1102,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1110,7 +2352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1118,7 +2360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1146,14 +2388,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +2403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1169,7 +2411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1177,7 +2419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1185,7 +2427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1193,7 +2435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1201,7 +2443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1209,7 +2451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1217,7 +2459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1225,7 +2467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1233,7 +2475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>

--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="19320" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="7540" yWindow="220" windowWidth="26860" windowHeight="16280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
   <si>
     <t>任务编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -235,9 +235,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -291,9 +303,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="30">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -302,14 +313,27 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -645,26 +669,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A57" sqref="A41:A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="3"/>
+    <col min="10" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -698,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -718,7 +742,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -750,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -782,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -814,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -834,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -856,7 +880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -888,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -920,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -952,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -972,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -994,7 +1018,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1026,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1058,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1132,7 +1156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1164,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1196,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1228,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1248,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1270,7 +1294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1302,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1334,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1366,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1386,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1408,7 +1432,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1440,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1472,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1504,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1524,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1546,7 +1570,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1578,7 +1602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1610,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1642,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1662,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1684,7 +1708,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1716,7 +1740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -1748,7 +1772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -1780,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -1800,7 +1824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -1854,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -1886,7 +1910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -1918,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -1960,7 +1984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -1992,7 +2016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -2024,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -2056,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -2076,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -2098,7 +2122,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -2130,7 +2154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -2162,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -2194,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -2262,22 +2286,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="3"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +2312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2296,7 +2320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2304,7 +2328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2320,7 +2344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2328,7 +2352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2336,7 +2360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2344,7 +2368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2352,7 +2376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2360,11 +2384,371 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2382,20 +2766,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2403,7 +2787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2411,7 +2795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2419,7 +2803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2427,7 +2811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2435,7 +2819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2443,7 +2827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2451,7 +2835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2459,7 +2843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2467,7 +2851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2475,11 +2859,371 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="220" windowWidth="26860" windowHeight="16280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7540" yWindow="220" windowWidth="26860" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="cn" sheetId="2" r:id="rId2"/>
     <sheet name="en" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -235,9 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -303,7 +305,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="32">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -319,6 +321,7 @@
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -333,6 +336,7 @@
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A57" sqref="A41:A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -688,7 +692,7 @@
     <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -722,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="21">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -756,7 +760,7 @@
         <v>500</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="7">
         <v>350</v>
@@ -788,7 +792,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="7">
         <v>350</v>
@@ -820,7 +824,7 @@
         <v>250</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7">
         <v>350</v>
@@ -849,7 +853,7 @@
         <v>250</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="7">
         <v>350</v>
@@ -869,7 +873,7 @@
         <v>500</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="7">
         <v>350</v>
@@ -894,7 +898,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7">
         <v>615</v>
@@ -926,7 +930,7 @@
         <v>500</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7">
         <v>615</v>
@@ -958,7 +962,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7">
         <v>615</v>
@@ -987,7 +991,7 @@
         <v>500</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="7">
         <v>615</v>
@@ -1007,7 +1011,7 @@
         <v>1000</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7">
         <v>615</v>
@@ -1032,7 +1036,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" s="7">
         <v>1000</v>
@@ -1064,7 +1068,7 @@
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" s="7">
         <v>1000</v>
@@ -1096,7 +1100,7 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="7">
         <v>1000</v>
@@ -1125,7 +1129,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" s="7">
         <v>1000</v>
@@ -1145,7 +1149,7 @@
         <v>1000</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17" s="7">
         <v>1000</v>
@@ -1170,7 +1174,7 @@
         <v>500</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" s="7">
         <v>1500</v>
@@ -1202,7 +1206,7 @@
         <v>500</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" s="7">
         <v>1500</v>
@@ -1234,7 +1238,7 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" s="7">
         <v>1500</v>
@@ -1263,7 +1267,7 @@
         <v>500</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7">
         <v>1500</v>
@@ -1283,7 +1287,7 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" s="7">
         <v>1500</v>
@@ -1308,7 +1312,7 @@
         <v>500</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" s="7">
         <v>2500</v>
@@ -1340,7 +1344,7 @@
         <v>500</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" s="7">
         <v>2500</v>
@@ -1372,7 +1376,7 @@
         <v>500</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" s="7">
         <v>2500</v>
@@ -1401,7 +1405,7 @@
         <v>500</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="7">
         <v>2500</v>
@@ -1421,7 +1425,7 @@
         <v>1000</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27" s="7">
         <v>2500</v>
@@ -1446,7 +1450,7 @@
         <v>500</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28" s="7">
         <v>5000</v>
@@ -1478,7 +1482,7 @@
         <v>500</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29" s="7">
         <v>5000</v>
@@ -1510,7 +1514,7 @@
         <v>500</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30" s="7">
         <v>5000</v>
@@ -1539,7 +1543,7 @@
         <v>500</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31" s="7">
         <v>5000</v>
@@ -1559,7 +1563,7 @@
         <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32" s="7">
         <v>5000</v>
@@ -1584,7 +1588,7 @@
         <v>500</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33" s="7">
         <v>8500</v>
@@ -1616,7 +1620,7 @@
         <v>500</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34" s="7">
         <v>8500</v>
@@ -1648,7 +1652,7 @@
         <v>500</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="7">
         <v>8500</v>
@@ -1677,7 +1681,7 @@
         <v>500</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" s="7">
         <v>8500</v>
@@ -1697,7 +1701,7 @@
         <v>1000</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" s="7">
         <v>8500</v>
@@ -1722,7 +1726,7 @@
         <v>500</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38" s="7">
         <v>12000</v>
@@ -1754,7 +1758,7 @@
         <v>500</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" s="7">
         <v>12000</v>
@@ -1786,7 +1790,7 @@
         <v>500</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40" s="7">
         <v>12000</v>
@@ -1815,7 +1819,7 @@
         <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G41" s="7">
         <v>12000</v>
@@ -1835,7 +1839,7 @@
         <v>1000</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42" s="7">
         <v>12000</v>
@@ -1860,7 +1864,7 @@
         <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="7">
         <v>20000</v>
@@ -1892,7 +1896,7 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" s="7">
         <v>20000</v>
@@ -1924,7 +1928,7 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="7">
         <v>20000</v>
@@ -1953,7 +1957,7 @@
         <v>500</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46" s="7">
         <v>20000</v>
@@ -1973,7 +1977,7 @@
         <v>1000</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" s="7">
         <v>20000</v>
@@ -1998,7 +2002,7 @@
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48" s="7">
         <v>25000</v>
@@ -2030,7 +2034,7 @@
         <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" s="7">
         <v>25000</v>
@@ -2062,7 +2066,7 @@
         <v>500</v>
       </c>
       <c r="F50" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="7">
         <v>25000</v>
@@ -2091,7 +2095,7 @@
         <v>500</v>
       </c>
       <c r="F51" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" s="7">
         <v>25000</v>
@@ -2111,7 +2115,7 @@
         <v>1000</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52" s="7">
         <v>25000</v>
@@ -2136,7 +2140,7 @@
         <v>500</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G53" s="7">
         <v>30000</v>
@@ -2168,7 +2172,7 @@
         <v>500</v>
       </c>
       <c r="F54" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54" s="7">
         <v>30000</v>
@@ -2200,7 +2204,7 @@
         <v>500</v>
       </c>
       <c r="F55" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" s="7">
         <v>30000</v>
@@ -2229,7 +2233,7 @@
         <v>500</v>
       </c>
       <c r="F56" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G56" s="7">
         <v>30000</v>
@@ -2249,7 +2253,7 @@
         <v>1000</v>
       </c>
       <c r="F57" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57" s="7">
         <v>30000</v>
@@ -2288,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:A56"/>
     </sheetView>
   </sheetViews>
@@ -2301,7 +2305,7 @@
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="22.5">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="21">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2768,7 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B52" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
@@ -2779,7 +2783,7 @@
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>

--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -95,34 +95,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杀死10组野怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢得5场比赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win 5 match</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Steal 5 players</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kill 10 groups of monster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Successfully occupy 5 gold mine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杀死5组野怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成功占领1次金矿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,39 +111,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>赢得1场比赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得100荣誉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Steal 1 players</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kill 5 groups of monster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Successfully occupy 1 gold mine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Win 1 match</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win 100 honor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得200荣誉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win 200 honor</t>
+    <t>世界地图杀死5组野怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战赛中赢得1场比赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战赛中获得100荣誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界地图杀死10组野怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战赛中赢得5场比赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战赛中获得100荣誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 5 groups of monster on world map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 1 match in arena</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 100 honor in arena</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 10 groups of monster on world map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 5 match in arena</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win 100 honor in arana</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -235,9 +235,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -305,7 +311,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="38">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -322,6 +328,9 @@
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -337,6 +346,9 @@
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1019,7 +1031,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1157,7 +1169,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="5"/>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1295,7 +1307,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1433,7 +1445,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1571,7 +1583,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1709,7 +1721,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1847,7 +1859,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="5"/>
       <c r="L42" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1985,7 +1997,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="5"/>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2123,7 +2135,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="5"/>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2261,7 +2273,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="5"/>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2292,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A56"/>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2329,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2337,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2345,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2353,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2361,7 +2373,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2385,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2393,7 +2405,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2401,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2425,7 +2437,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2433,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2441,7 +2453,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2465,7 +2477,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2473,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2481,7 +2493,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2505,7 +2517,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2513,7 +2525,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2521,7 +2533,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2545,7 +2557,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2553,7 +2565,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2561,7 +2573,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2585,7 +2597,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2593,7 +2605,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2601,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2625,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2633,7 +2645,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2641,7 +2653,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2665,7 +2677,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2673,7 +2685,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2681,7 +2693,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2705,7 +2717,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2713,7 +2725,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2721,7 +2733,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2745,7 +2757,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2753,7 +2765,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B52" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
@@ -2804,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2812,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2820,7 +2832,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2828,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2836,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2844,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2852,7 +2864,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2860,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2876,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2884,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2892,7 +2904,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2900,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2916,7 +2928,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2924,7 +2936,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2932,7 +2944,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2940,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2956,7 +2968,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2964,7 +2976,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2972,7 +2984,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2980,7 +2992,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2996,7 +3008,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3004,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3012,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3020,7 +3032,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3036,7 +3048,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3044,7 +3056,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3052,7 +3064,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3060,7 +3072,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3076,7 +3088,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3084,7 +3096,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3092,7 +3104,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3100,7 +3112,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3116,7 +3128,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3124,7 +3136,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3132,7 +3144,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3140,7 +3152,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3156,7 +3168,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3164,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3172,7 +3184,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3180,7 +3192,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3196,7 +3208,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3204,7 +3216,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3212,7 +3224,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3220,7 +3232,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2">

--- a/const/daily_quest.xlsx
+++ b/const/daily_quest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="220" windowWidth="26860" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="0" windowWidth="26860" windowHeight="16280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
   <si>
     <t>任务编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -235,9 +235,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,7 +319,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="46">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -331,6 +339,10 @@
     <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -349,6 +361,10 @@
     <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -683,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88:K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2273,6 +2289,972 @@
       <c r="J57" s="3"/>
       <c r="K57" s="5"/>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3">
+        <v>500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5</v>
+      </c>
+      <c r="G58" s="7">
+        <v>35000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4</v>
+      </c>
+      <c r="K58" s="5">
+        <v>20</v>
+      </c>
+      <c r="L58" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>55</v>
+      </c>
+      <c r="C59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5</v>
+      </c>
+      <c r="G59" s="7">
+        <v>35000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5</v>
+      </c>
+      <c r="K59" s="5">
+        <v>20</v>
+      </c>
+      <c r="L59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>55</v>
+      </c>
+      <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5</v>
+      </c>
+      <c r="G60" s="7">
+        <v>35000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2</v>
+      </c>
+      <c r="J60" s="6">
+        <v>6</v>
+      </c>
+      <c r="K60" s="5">
+        <v>20</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>55</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5</v>
+      </c>
+      <c r="G61" s="7">
+        <v>35000</v>
+      </c>
+      <c r="L61" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>55</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5</v>
+      </c>
+      <c r="G62" s="7">
+        <v>35000</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>60</v>
+      </c>
+      <c r="C63" s="3">
+        <v>500</v>
+      </c>
+      <c r="D63" s="3">
+        <v>500</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5</v>
+      </c>
+      <c r="G63" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3">
+        <v>4</v>
+      </c>
+      <c r="K63" s="5">
+        <v>20</v>
+      </c>
+      <c r="L63" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>60</v>
+      </c>
+      <c r="C64" s="3">
+        <v>500</v>
+      </c>
+      <c r="E64" s="3">
+        <v>500</v>
+      </c>
+      <c r="F64" s="3">
+        <v>5</v>
+      </c>
+      <c r="G64" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3">
+        <v>5</v>
+      </c>
+      <c r="K64" s="5">
+        <v>20</v>
+      </c>
+      <c r="L64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>60</v>
+      </c>
+      <c r="D65" s="3">
+        <v>500</v>
+      </c>
+      <c r="E65" s="3">
+        <v>500</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5</v>
+      </c>
+      <c r="G65" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2</v>
+      </c>
+      <c r="J65" s="6">
+        <v>6</v>
+      </c>
+      <c r="K65" s="5">
+        <v>20</v>
+      </c>
+      <c r="L65" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>60</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5</v>
+      </c>
+      <c r="G66" s="7">
+        <v>40000</v>
+      </c>
+      <c r="L66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>60</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F67" s="3">
+        <v>5</v>
+      </c>
+      <c r="G67" s="7">
+        <v>40000</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>65</v>
+      </c>
+      <c r="C68" s="3">
+        <v>500</v>
+      </c>
+      <c r="D68" s="3">
+        <v>500</v>
+      </c>
+      <c r="F68" s="3">
+        <v>5</v>
+      </c>
+      <c r="G68" s="7">
+        <v>45000</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>4</v>
+      </c>
+      <c r="K68" s="5">
+        <v>20</v>
+      </c>
+      <c r="L68" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>65</v>
+      </c>
+      <c r="C69" s="3">
+        <v>500</v>
+      </c>
+      <c r="E69" s="3">
+        <v>500</v>
+      </c>
+      <c r="F69" s="3">
+        <v>5</v>
+      </c>
+      <c r="G69" s="7">
+        <v>45000</v>
+      </c>
+      <c r="I69" s="3">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3">
+        <v>5</v>
+      </c>
+      <c r="K69" s="5">
+        <v>20</v>
+      </c>
+      <c r="L69" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>65</v>
+      </c>
+      <c r="D70" s="3">
+        <v>500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>500</v>
+      </c>
+      <c r="F70" s="3">
+        <v>5</v>
+      </c>
+      <c r="G70" s="7">
+        <v>45000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2</v>
+      </c>
+      <c r="J70" s="6">
+        <v>6</v>
+      </c>
+      <c r="K70" s="5">
+        <v>20</v>
+      </c>
+      <c r="L70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>65</v>
+      </c>
+      <c r="E71" s="3">
+        <v>500</v>
+      </c>
+      <c r="F71" s="3">
+        <v>5</v>
+      </c>
+      <c r="G71" s="7">
+        <v>45000</v>
+      </c>
+      <c r="L71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>65</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>5</v>
+      </c>
+      <c r="G72" s="7">
+        <v>45000</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>70</v>
+      </c>
+      <c r="C73" s="3">
+        <v>500</v>
+      </c>
+      <c r="D73" s="3">
+        <v>500</v>
+      </c>
+      <c r="F73" s="3">
+        <v>5</v>
+      </c>
+      <c r="G73" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3">
+        <v>4</v>
+      </c>
+      <c r="K73" s="5">
+        <v>20</v>
+      </c>
+      <c r="L73" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>70</v>
+      </c>
+      <c r="C74" s="3">
+        <v>500</v>
+      </c>
+      <c r="E74" s="3">
+        <v>500</v>
+      </c>
+      <c r="F74" s="3">
+        <v>5</v>
+      </c>
+      <c r="G74" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3">
+        <v>5</v>
+      </c>
+      <c r="K74" s="5">
+        <v>20</v>
+      </c>
+      <c r="L74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>70</v>
+      </c>
+      <c r="D75" s="3">
+        <v>500</v>
+      </c>
+      <c r="E75" s="3">
+        <v>500</v>
+      </c>
+      <c r="F75" s="3">
+        <v>5</v>
+      </c>
+      <c r="G75" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2</v>
+      </c>
+      <c r="J75" s="6">
+        <v>6</v>
+      </c>
+      <c r="K75" s="5">
+        <v>20</v>
+      </c>
+      <c r="L75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>70</v>
+      </c>
+      <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5</v>
+      </c>
+      <c r="G76" s="7">
+        <v>50000</v>
+      </c>
+      <c r="L76" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>70</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F77" s="3">
+        <v>5</v>
+      </c>
+      <c r="G77" s="7">
+        <v>50000</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>75</v>
+      </c>
+      <c r="C78" s="3">
+        <v>500</v>
+      </c>
+      <c r="D78" s="3">
+        <v>500</v>
+      </c>
+      <c r="F78" s="3">
+        <v>5</v>
+      </c>
+      <c r="G78" s="7">
+        <v>55000</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3">
+        <v>4</v>
+      </c>
+      <c r="K78" s="5">
+        <v>20</v>
+      </c>
+      <c r="L78" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>75</v>
+      </c>
+      <c r="C79" s="3">
+        <v>500</v>
+      </c>
+      <c r="E79" s="3">
+        <v>500</v>
+      </c>
+      <c r="F79" s="3">
+        <v>5</v>
+      </c>
+      <c r="G79" s="7">
+        <v>55000</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3">
+        <v>5</v>
+      </c>
+      <c r="K79" s="5">
+        <v>20</v>
+      </c>
+      <c r="L79" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>75</v>
+      </c>
+      <c r="D80" s="3">
+        <v>500</v>
+      </c>
+      <c r="E80" s="3">
+        <v>500</v>
+      </c>
+      <c r="F80" s="3">
+        <v>5</v>
+      </c>
+      <c r="G80" s="7">
+        <v>55000</v>
+      </c>
+      <c r="I80" s="3">
+        <v>2</v>
+      </c>
+      <c r="J80" s="6">
+        <v>6</v>
+      </c>
+      <c r="K80" s="5">
+        <v>20</v>
+      </c>
+      <c r="L80" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>75</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5</v>
+      </c>
+      <c r="G81" s="7">
+        <v>55000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>75</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F82" s="3">
+        <v>5</v>
+      </c>
+      <c r="G82" s="7">
+        <v>55000</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>80</v>
+      </c>
+      <c r="C83" s="3">
+        <v>500</v>
+      </c>
+      <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5</v>
+      </c>
+      <c r="G83" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4</v>
+      </c>
+      <c r="K83" s="5">
+        <v>20</v>
+      </c>
+      <c r="L83" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>80</v>
+      </c>
+      <c r="C84" s="3">
+        <v>500</v>
+      </c>
+      <c r="E84" s="3">
+        <v>500</v>
+      </c>
+      <c r="F84" s="3">
+        <v>5</v>
+      </c>
+      <c r="G84" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3">
+        <v>5</v>
+      </c>
+      <c r="K84" s="5">
+        <v>20</v>
+      </c>
+      <c r="L84" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>80</v>
+      </c>
+      <c r="D85" s="3">
+        <v>500</v>
+      </c>
+      <c r="E85" s="3">
+        <v>500</v>
+      </c>
+      <c r="F85" s="3">
+        <v>5</v>
+      </c>
+      <c r="G85" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2</v>
+      </c>
+      <c r="J85" s="6">
+        <v>6</v>
+      </c>
+      <c r="K85" s="5">
+        <v>20</v>
+      </c>
+      <c r="L85" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>80</v>
+      </c>
+      <c r="E86" s="3">
+        <v>500</v>
+      </c>
+      <c r="F86" s="3">
+        <v>5</v>
+      </c>
+      <c r="G86" s="7">
+        <v>60000</v>
+      </c>
+      <c r="L86" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>80</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="3">
+        <v>5</v>
+      </c>
+      <c r="G87" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>85</v>
+      </c>
+      <c r="C88" s="3">
+        <v>500</v>
+      </c>
+      <c r="D88" s="3">
+        <v>500</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5</v>
+      </c>
+      <c r="G88" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3">
+        <v>4</v>
+      </c>
+      <c r="K88" s="5">
+        <v>20</v>
+      </c>
+      <c r="L88" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>85</v>
+      </c>
+      <c r="C89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5</v>
+      </c>
+      <c r="G89" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5</v>
+      </c>
+      <c r="K89" s="5">
+        <v>20</v>
+      </c>
+      <c r="L89" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>85</v>
+      </c>
+      <c r="D90" s="3">
+        <v>500</v>
+      </c>
+      <c r="E90" s="3">
+        <v>500</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5</v>
+      </c>
+      <c r="G90" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
+      </c>
+      <c r="J90" s="6">
+        <v>6</v>
+      </c>
+      <c r="K90" s="5">
+        <v>20</v>
+      </c>
+      <c r="L90" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>85</v>
+      </c>
+      <c r="E91" s="3">
+        <v>500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5</v>
+      </c>
+      <c r="G91" s="7">
+        <v>60000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>85</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5</v>
+      </c>
+      <c r="G92" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2302,10 +3284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B56"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2768,6 +3750,286 @@
         <v>29</v>
       </c>
     </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2782,10 +4044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3243,6 +4505,286 @@
         <v>35</v>
       </c>
     </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
